--- a/contents/c/results.xlsx
+++ b/contents/c/results.xlsx
@@ -931,7 +931,7 @@
   <dimension ref="A1:G128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1070,9 +1070,15 @@
       <c r="D8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="E8" s="6">
+        <v>9</v>
+      </c>
+      <c r="F8" s="6">
+        <v>9</v>
+      </c>
+      <c r="G8" s="6">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1288,15 +1294,9 @@
       <c r="D18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>10</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -1312,7 +1312,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F19" s="6">
         <v>10</v>
@@ -1335,7 +1335,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F20" s="6">
         <v>10</v>
@@ -1381,7 +1381,7 @@
         <v>104</v>
       </c>
       <c r="E22" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F22" s="6">
         <v>10</v>
@@ -1869,7 +1869,7 @@
         <v>8</v>
       </c>
       <c r="E44" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F44" s="6">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         <v>12</v>
       </c>
       <c r="E50" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F50" s="6">
         <v>10</v>
@@ -2093,7 +2093,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F54" s="6">
         <v>10</v>
@@ -2334,7 +2334,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F65" s="6">
         <v>10</v>
@@ -2610,7 +2610,7 @@
         <v>12</v>
       </c>
       <c r="E77" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F77" s="6">
         <v>10</v>
@@ -2633,7 +2633,7 @@
         <v>12</v>
       </c>
       <c r="E78" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F78" s="6">
         <v>10</v>
@@ -2932,7 +2932,7 @@
         <v>8</v>
       </c>
       <c r="E91" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F91" s="6">
         <v>10</v>
@@ -2955,7 +2955,7 @@
         <v>17</v>
       </c>
       <c r="E92" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F92" s="6">
         <v>10</v>
@@ -3047,7 +3047,7 @@
         <v>10</v>
       </c>
       <c r="E96" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F96" s="6">
         <v>10</v>
@@ -3294,7 +3294,7 @@
         <v>10</v>
       </c>
       <c r="E107" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F107" s="6">
         <v>10</v>
@@ -3455,7 +3455,7 @@
         <v>10</v>
       </c>
       <c r="E114" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F114" s="6">
         <v>10</v>
@@ -3547,7 +3547,7 @@
         <v>10</v>
       </c>
       <c r="E118" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F118" s="6">
         <v>10</v>
@@ -3593,7 +3593,7 @@
         <v>10</v>
       </c>
       <c r="E120" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F120" s="6">
         <v>10</v>

--- a/contents/c/results.xlsx
+++ b/contents/c/results.xlsx
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1296,7 +1296,9 @@
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -1312,7 +1314,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F19" s="6">
         <v>10</v>
@@ -1335,7 +1337,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F20" s="6">
         <v>10</v>
@@ -1610,8 +1612,12 @@
       <c r="D32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="E32" s="6">
+        <v>5</v>
+      </c>
+      <c r="F32" s="6">
+        <v>10</v>
+      </c>
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1696,8 +1702,12 @@
       <c r="D36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="E36" s="6">
+        <v>5</v>
+      </c>
+      <c r="F36" s="6">
+        <v>10</v>
+      </c>
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1713,8 +1723,12 @@
       <c r="D37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="E37" s="6">
+        <v>5</v>
+      </c>
+      <c r="F37" s="6">
+        <v>10</v>
+      </c>
       <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1869,7 +1883,7 @@
         <v>8</v>
       </c>
       <c r="E44" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F44" s="6">
         <v>10</v>
@@ -2007,7 +2021,7 @@
         <v>12</v>
       </c>
       <c r="E50" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F50" s="6">
         <v>10</v>
@@ -2093,7 +2107,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F54" s="6">
         <v>10</v>
@@ -2115,8 +2129,12 @@
       <c r="D55" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+      <c r="E55" s="6">
+        <v>5</v>
+      </c>
+      <c r="F55" s="6">
+        <v>10</v>
+      </c>
       <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2334,7 +2352,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F65" s="6">
         <v>10</v>
@@ -2610,7 +2628,7 @@
         <v>12</v>
       </c>
       <c r="E77" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F77" s="6">
         <v>10</v>
@@ -2633,7 +2651,7 @@
         <v>12</v>
       </c>
       <c r="E78" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F78" s="6">
         <v>10</v>
@@ -2932,7 +2950,7 @@
         <v>8</v>
       </c>
       <c r="E91" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F91" s="6">
         <v>10</v>
@@ -3070,7 +3088,7 @@
         <v>10</v>
       </c>
       <c r="E97" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F97" s="6">
         <v>10</v>
@@ -3254,7 +3272,7 @@
         <v>10</v>
       </c>
       <c r="G105" s="6">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3340,7 +3358,7 @@
         <v>10</v>
       </c>
       <c r="E109" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F109" s="6">
         <v>10</v>
@@ -3455,7 +3473,7 @@
         <v>10</v>
       </c>
       <c r="E114" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F114" s="6">
         <v>10</v>
@@ -3754,7 +3772,7 @@
         <v>17</v>
       </c>
       <c r="E127" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F127" s="6">
         <v>10</v>
